--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T03:28:29+00:00</t>
+    <t>2024-03-28T20:52:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T20:52:03+00:00</t>
+    <t>2024-03-30T10:20:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/all-profiles.xlsx
+++ b/branches/master/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:07:30+00:00</t>
+    <t>2024-04-07T12:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
